--- a/tests/materials/ZonalUC/zonalUC.xlsx
+++ b/tests/materials/ZonalUC/zonalUC.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21100" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10480" yWindow="-18620" windowWidth="21100" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="zonal_t2" sheetId="1" r:id="rId1"/>
     <sheet name="zonal_gas" sheetId="2" r:id="rId2"/>
+    <sheet name="zonal_t3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
-  <si>
-    <t>time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="20">
   <si>
     <t>zone</t>
   </si>
@@ -34,15 +32,9 @@
     <t>burnup [FIMA]</t>
   </si>
   <si>
-    <t>temperature [K]</t>
-  </si>
-  <si>
     <t>Analytical T2</t>
   </si>
   <si>
-    <t>Nitrogen content</t>
-  </si>
-  <si>
     <t>% Diff</t>
   </si>
   <si>
@@ -56,6 +48,39 @@
   </si>
   <si>
     <t>gas_rel_rate/gas_gen_rate</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> burnup         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gas_gen        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gas_rel        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zone           </t>
+  </si>
+  <si>
+    <t>+----------------+----------------+----------------+----------------+----------------+</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Burnup</t>
+  </si>
+  <si>
+    <t>Analytical T3</t>
+  </si>
+  <si>
+    <t>% diff</t>
   </si>
 </sst>
 </file>
@@ -63,8 +88,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -109,8 +134,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -230,13 +283,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -295,6 +348,20 @@
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -353,6 +420,20 @@
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -682,427 +763,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I30"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
-      <c r="E2" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.383676E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1705.502</v>
+      </c>
+      <c r="F2" s="3">
+        <f>87400/8.314/LN(D2*100/0.000712)</f>
+        <v>1705.5016819570501</v>
+      </c>
+      <c r="G2" s="1">
+        <f>ABS(F2-E2)*100/F2</f>
+        <v>1.864805841129942E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.7673519999999999E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1533.098</v>
+      </c>
+      <c r="F3" s="3">
+        <f>87400/8.314/LN(D3*100/0.000712)</f>
+        <v>1533.098149494785</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G12" si="0">ABS(F3-E3)*100/F3</f>
+        <v>9.7511555369617978E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.015103E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1447.5039999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <f>87400/8.314/LN(D4*100/0.000712)</f>
+        <v>1447.5043838954459</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6521194014457422E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.35347E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1392.35</v>
+      </c>
+      <c r="F5" s="3">
+        <f>87400/8.314/LN(D5*100/0.000712)</f>
+        <v>1392.3501329247711</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5467920035163027E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.691838E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1352.38</v>
+      </c>
+      <c r="F6" s="3">
+        <f>87400/8.314/LN(D6*100/0.000712)</f>
+        <v>1352.3804370537498</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2317367045374145E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" t="s">
+      <c r="D7" s="1">
+        <v>2.030206E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1321.3869999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <f>87400/8.314/LN(D7*100/0.000712)</f>
+        <v>1321.3872617273266</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9807011484710473E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.3685729999999999E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1296.27</v>
+      </c>
+      <c r="F8" s="3">
+        <f>87400/8.314/LN(D8*100/0.000712)</f>
+        <v>1296.2701966516515</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5170575706934936E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.383676E-3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1220</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1465.6020000000001</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" ref="H6:H16" si="0">(-514*$F$2+145000)/8.314/LN(D6*100/(0.00000000136*$F$2^3-0.0000000439*$F$2^2+0.000000715*$F$2+0.000002))</f>
-        <v>1465.5884948819973</v>
-      </c>
-      <c r="I6" s="2">
-        <f>ABS(H6-G6)*100/H6</f>
-        <v>9.2148089657511387E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6.7673519999999999E-3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1240</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1384.796</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>1384.7846195670986</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" ref="I7:I16" si="1">ABS(H7-G7)*100/H7</f>
-        <v>8.2181970687907676E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>30000</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.015103E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1260</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1341.53</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="0"/>
-        <v>1341.5187798690106</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>8.3637524556173543E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>40000</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.35347E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1280</v>
+      <c r="D9" s="1">
+        <v>2.7069409999999999E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1275.2719999999999</v>
       </c>
       <c r="F9" s="3">
-        <v>4</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1312.4359999999999</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
-        <v>1312.4252878231162</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
-        <v>8.1621231952482844E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <f>87400/8.314/LN(D9*100/0.000712)</f>
+        <v>1275.2720550550746</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3171238980444123E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.691838E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1300</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.045308E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1257.307</v>
       </c>
       <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1290.723</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>1290.7131940734628</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>7.5972931726495715E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <f>87400/8.314/LN(D10*100/0.000712)</f>
+        <v>1257.3071550473544</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2331700631827477E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>60000</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2.030206E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1320</v>
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.383676E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1241.6610000000001</v>
       </c>
       <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1273.509</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>1273.499289275655</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="1"/>
-        <v>7.6252294970374432E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <f>87400/8.314/LN(D11*100/0.000712)</f>
+        <v>1241.6605085067497</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9583545340933771E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>70000</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2.3685729999999999E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1340</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.722044E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1227.838</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1259.309</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>1259.2994049396323</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>7.6193638542702597E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2">
-        <v>80000</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.7069409999999999E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1360</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1247.2619999999999</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>1247.2523834677816</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="1"/>
-        <v>7.710173454750735E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2">
-        <v>90000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3.045308E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1380</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1236.825</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>1236.8159083456956</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>7.3508549195851311E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.383676E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1227.636</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>1227.6270324700179</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="1"/>
-        <v>7.3047674455800594E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2">
-        <v>110000</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3.722044E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>500</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1219.441</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>1219.4315205035873</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="1"/>
-        <v>7.7737013135501269E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+        <f>87400/8.314/LN(D12*100/0.000712)</f>
+        <v>1227.838143556862</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1691839249231502E-5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1117,69 +1054,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>41.514449999999997</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4.1514449999999998</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>20000</v>
-      </c>
-      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>83.028890000000004</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>8.3028890000000004</v>
       </c>
       <c r="F4" s="5">
@@ -1189,18 +1127,18 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>30000</v>
-      </c>
-      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>124.5433</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>12.454330000000001</v>
       </c>
       <c r="F5" s="5">
@@ -1210,18 +1148,18 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>40000</v>
-      </c>
-      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
         <v>166.05779999999999</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>16.605779999999999</v>
       </c>
       <c r="F6" s="5">
@@ -1231,149 +1169,644 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>50000</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
         <v>207.57220000000001</v>
       </c>
-      <c r="E7" s="5">
-        <v>21.795079999999999</v>
+      <c r="E7" s="4">
+        <v>20.75722</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>0.12499999999999992</v>
+        <v>9.9999999999999964E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
-        <v>60000</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
         <v>249.08670000000001</v>
       </c>
-      <c r="E8" s="5">
-        <v>28.02225</v>
+      <c r="E8" s="4">
+        <v>24.908670000000001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0.1499998795601537</v>
+        <v>0.10000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>70000</v>
-      </c>
-      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>290.60109999999997</v>
       </c>
-      <c r="E9" s="5">
-        <v>34.249420000000001</v>
+      <c r="E9" s="4">
+        <v>30.09797</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>0.150000240880273</v>
+        <v>0.12500000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>80000</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
         <v>332.11559999999997</v>
       </c>
-      <c r="E10" s="5">
-        <v>51.893059999999998</v>
+      <c r="E10" s="4">
+        <v>36.325139999999998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>0.42499945802069156</v>
+        <v>0.14999987956015362</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>90000</v>
-      </c>
-      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>373.63</v>
       </c>
-      <c r="E11" s="5">
-        <v>80.95317</v>
+      <c r="E11" s="4">
+        <v>53.968780000000002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>0.70000072264081825</v>
+        <v>0.42500048176054561</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>100000</v>
-      </c>
-      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>415.14449999999999</v>
       </c>
-      <c r="E12" s="5">
-        <v>110.0133</v>
+      <c r="E12" s="4">
+        <v>83.028890000000004</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>0.69999951824061479</v>
+        <v>0.69999903648122952</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>456.65890000000002</v>
+      </c>
+      <c r="E13" s="4">
+        <v>112.089</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70000072264081803</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="D20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.383676E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>41.514449999999997</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4.1514449999999998</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="D21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.7673519999999999E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>83.028890000000004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8.3028890000000004</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="D22" s="1">
+        <v>30000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.015103E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>124.5433</v>
+      </c>
+      <c r="G22" s="1">
+        <v>12.454330000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="D23" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.35347E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>166.05779999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>16.605779999999999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="D24" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.691838E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>207.57220000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20.75722</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="D25" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.030206E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>249.08670000000001</v>
+      </c>
+      <c r="G25" s="1">
+        <v>24.908670000000001</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="D26" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.3685729999999999E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>290.60109999999997</v>
+      </c>
+      <c r="G26" s="1">
+        <v>30.09797</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="D27" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.7069409999999999E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>332.11559999999997</v>
+      </c>
+      <c r="G27" s="1">
+        <v>36.325139999999998</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="D28" s="1">
+        <v>90000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.045308E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>373.63</v>
+      </c>
+      <c r="G28" s="1">
+        <v>53.968780000000002</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="D29" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3.383676E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>415.14449999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>83.028890000000004</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="D30" s="1">
+        <v>110000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.722044E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>456.65890000000002</v>
+      </c>
+      <c r="G30" s="1">
+        <v>112.089</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.383676E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2383.4490000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <f>44400/8.314/LN(D6*100/0.036)</f>
+        <v>2383.4492898346548</v>
+      </c>
+      <c r="G6" s="1">
+        <f>ABS(E6-F6)/F6*100</f>
+        <v>1.2160302967585278E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.7673519999999999E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1820.3219999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7:F16" si="0">44400/8.314/LN(D7*100/0.036)</f>
+        <v>1820.3219296442603</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G16" si="1">ABS(E7-F7)/F7*100</f>
+        <v>3.8650163158045266E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.015103E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1599.29</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1599.2894830388814</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2324424319336277E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.35347E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1472.4359999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1472.4359415446709</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9699743400967902E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.691838E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1387.096</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1387.0955272255749</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4083768266463724E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.030206E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1324.3789999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>1324.3786974049283</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2848077533214301E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.3685729999999999E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1275.614</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1275.6142561730289</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0082327213105148E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="3">
-        <v>110000</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>456.65890000000002</v>
-      </c>
-      <c r="E13" s="5">
-        <v>139.07339999999999</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.70000048176054519</v>
+      <c r="D13" s="1">
+        <v>2.7069409999999999E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1236.1849999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>1236.1854229447299</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4213696595344205E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.045308E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1203.376</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1203.376337670006</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8060216532171536E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.383676E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1175.4690000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>1175.4690176056101</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4977519457335173E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.722044E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1151.316</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>1151.3159369471853</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4765866382338525E-6</v>
       </c>
     </row>
   </sheetData>
